--- a/applications/us_states/Jackson_projections.xlsx
+++ b/applications/us_states/Jackson_projections.xlsx
@@ -1,16 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\applications\us_states\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C898382-F71B-447B-82FD-8E519916AEED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projections" sheetId="1" r:id="rId1"/>
     <sheet name="Daily projections" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -902,8 +918,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,186 +956,194 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:X4" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:X4" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="24">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-    <tableColumn id="7" name="Column7"/>
-    <tableColumn id="8" name="Column8"/>
-    <tableColumn id="9" name="Column9"/>
-    <tableColumn id="10" name="Column10"/>
-    <tableColumn id="11" name="Column11"/>
-    <tableColumn id="12" name="Column12"/>
-    <tableColumn id="13" name="Column13"/>
-    <tableColumn id="14" name="Column14"/>
-    <tableColumn id="15" name="Column15"/>
-    <tableColumn id="16" name="Column16"/>
-    <tableColumn id="17" name="Column17"/>
-    <tableColumn id="18" name="Column18"/>
-    <tableColumn id="19" name="Column19"/>
-    <tableColumn id="20" name="Column20"/>
-    <tableColumn id="21" name="Column21"/>
-    <tableColumn id="22" name="Column22"/>
-    <tableColumn id="23" name="Column23"/>
-    <tableColumn id="24" name="Column24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Column17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Column18"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Column19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Column20"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Column21"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column22"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column23"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Column24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:EK17" totalsRowShown="0">
-  <autoFilter ref="A1:EK17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:EK17" totalsRowShown="0">
+  <autoFilter ref="A1:EK17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="141">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-    <tableColumn id="7" name="Column7"/>
-    <tableColumn id="8" name="Column8"/>
-    <tableColumn id="9" name="Column9"/>
-    <tableColumn id="10" name="Column10"/>
-    <tableColumn id="11" name="Column11"/>
-    <tableColumn id="12" name="Column12"/>
-    <tableColumn id="13" name="Column13"/>
-    <tableColumn id="14" name="Column14"/>
-    <tableColumn id="15" name="Column15"/>
-    <tableColumn id="16" name="Column16"/>
-    <tableColumn id="17" name="Column17"/>
-    <tableColumn id="18" name="Column18"/>
-    <tableColumn id="19" name="Column19"/>
-    <tableColumn id="20" name="Column20"/>
-    <tableColumn id="21" name="Column21"/>
-    <tableColumn id="22" name="Column22"/>
-    <tableColumn id="23" name="Column23"/>
-    <tableColumn id="24" name="Column24"/>
-    <tableColumn id="25" name="Column25"/>
-    <tableColumn id="26" name="Column26"/>
-    <tableColumn id="27" name="Column27"/>
-    <tableColumn id="28" name="Column28"/>
-    <tableColumn id="29" name="Column29"/>
-    <tableColumn id="30" name="Column30"/>
-    <tableColumn id="31" name="Column31"/>
-    <tableColumn id="32" name="Column32"/>
-    <tableColumn id="33" name="Column33"/>
-    <tableColumn id="34" name="Column34"/>
-    <tableColumn id="35" name="Column35"/>
-    <tableColumn id="36" name="Column36"/>
-    <tableColumn id="37" name="Column37"/>
-    <tableColumn id="38" name="Column38"/>
-    <tableColumn id="39" name="Column39"/>
-    <tableColumn id="40" name="Column40"/>
-    <tableColumn id="41" name="Column41"/>
-    <tableColumn id="42" name="Column42"/>
-    <tableColumn id="43" name="Column43"/>
-    <tableColumn id="44" name="Column44"/>
-    <tableColumn id="45" name="Column45"/>
-    <tableColumn id="46" name="Column46"/>
-    <tableColumn id="47" name="Column47"/>
-    <tableColumn id="48" name="Column48"/>
-    <tableColumn id="49" name="Column49"/>
-    <tableColumn id="50" name="Column50"/>
-    <tableColumn id="51" name="Column51"/>
-    <tableColumn id="52" name="Column52"/>
-    <tableColumn id="53" name="Column53"/>
-    <tableColumn id="54" name="Column54"/>
-    <tableColumn id="55" name="Column55"/>
-    <tableColumn id="56" name="Column56"/>
-    <tableColumn id="57" name="Column57"/>
-    <tableColumn id="58" name="Column58"/>
-    <tableColumn id="59" name="Column59"/>
-    <tableColumn id="60" name="Column60"/>
-    <tableColumn id="61" name="Column61"/>
-    <tableColumn id="62" name="Column62"/>
-    <tableColumn id="63" name="Column63"/>
-    <tableColumn id="64" name="Column64"/>
-    <tableColumn id="65" name="Column65"/>
-    <tableColumn id="66" name="Column66"/>
-    <tableColumn id="67" name="Column67"/>
-    <tableColumn id="68" name="Column68"/>
-    <tableColumn id="69" name="Column69"/>
-    <tableColumn id="70" name="Column70"/>
-    <tableColumn id="71" name="Column71"/>
-    <tableColumn id="72" name="Column72"/>
-    <tableColumn id="73" name="Column73"/>
-    <tableColumn id="74" name="Column74"/>
-    <tableColumn id="75" name="Column75"/>
-    <tableColumn id="76" name="Column76"/>
-    <tableColumn id="77" name="Column77"/>
-    <tableColumn id="78" name="Column78"/>
-    <tableColumn id="79" name="Column79"/>
-    <tableColumn id="80" name="Column80"/>
-    <tableColumn id="81" name="Column81"/>
-    <tableColumn id="82" name="Column82"/>
-    <tableColumn id="83" name="Column83"/>
-    <tableColumn id="84" name="Column84"/>
-    <tableColumn id="85" name="Column85"/>
-    <tableColumn id="86" name="Column86"/>
-    <tableColumn id="87" name="Column87"/>
-    <tableColumn id="88" name="Column88"/>
-    <tableColumn id="89" name="Column89"/>
-    <tableColumn id="90" name="Column90"/>
-    <tableColumn id="91" name="Column91"/>
-    <tableColumn id="92" name="Column92"/>
-    <tableColumn id="93" name="Column93"/>
-    <tableColumn id="94" name="Column94"/>
-    <tableColumn id="95" name="Column95"/>
-    <tableColumn id="96" name="Column96"/>
-    <tableColumn id="97" name="Column97"/>
-    <tableColumn id="98" name="Column98"/>
-    <tableColumn id="99" name="Column99"/>
-    <tableColumn id="100" name="Column100"/>
-    <tableColumn id="101" name="Column101"/>
-    <tableColumn id="102" name="Column102"/>
-    <tableColumn id="103" name="Column103"/>
-    <tableColumn id="104" name="Column104"/>
-    <tableColumn id="105" name="Column105"/>
-    <tableColumn id="106" name="Column106"/>
-    <tableColumn id="107" name="Column107"/>
-    <tableColumn id="108" name="Column108"/>
-    <tableColumn id="109" name="Column109"/>
-    <tableColumn id="110" name="Column110"/>
-    <tableColumn id="111" name="Column111"/>
-    <tableColumn id="112" name="Column112"/>
-    <tableColumn id="113" name="Column113"/>
-    <tableColumn id="114" name="Column114"/>
-    <tableColumn id="115" name="Column115"/>
-    <tableColumn id="116" name="Column116"/>
-    <tableColumn id="117" name="Column117"/>
-    <tableColumn id="118" name="Column118"/>
-    <tableColumn id="119" name="Column119"/>
-    <tableColumn id="120" name="Column120"/>
-    <tableColumn id="121" name="Column121"/>
-    <tableColumn id="122" name="Column122"/>
-    <tableColumn id="123" name="Column123"/>
-    <tableColumn id="124" name="Column124"/>
-    <tableColumn id="125" name="Column125"/>
-    <tableColumn id="126" name="Column126"/>
-    <tableColumn id="127" name="Column127"/>
-    <tableColumn id="128" name="Column128"/>
-    <tableColumn id="129" name="Column129"/>
-    <tableColumn id="130" name="Column130"/>
-    <tableColumn id="131" name="Column131"/>
-    <tableColumn id="132" name="Column132"/>
-    <tableColumn id="133" name="Column133"/>
-    <tableColumn id="134" name="Column134"/>
-    <tableColumn id="135" name="Column135"/>
-    <tableColumn id="136" name="Column136"/>
-    <tableColumn id="137" name="Column137"/>
-    <tableColumn id="138" name="Column138"/>
-    <tableColumn id="139" name="Column139"/>
-    <tableColumn id="140" name="Column140"/>
-    <tableColumn id="141" name="Column141"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Column15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Column16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Column17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Column18"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="Column19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="Column20"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="Column21"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="Column22"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Column23"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="Column24"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="Column25"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="Column26"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="Column27"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="Column28"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="Column29"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="Column30"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="Column31"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" name="Column32"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" name="Column33"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0100-000022000000}" name="Column34"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0100-000023000000}" name="Column35"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="Column36"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0100-000025000000}" name="Column37"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0100-000026000000}" name="Column38"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0100-000027000000}" name="Column39"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0100-000028000000}" name="Column40"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0100-000029000000}" name="Column41"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0100-00002A000000}" name="Column42"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0100-00002B000000}" name="Column43"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0100-00002C000000}" name="Column44"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0100-00002D000000}" name="Column45"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0100-00002E000000}" name="Column46"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0100-00002F000000}" name="Column47"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0100-000030000000}" name="Column48"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0100-000031000000}" name="Column49"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0100-000032000000}" name="Column50"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0100-000033000000}" name="Column51"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0100-000034000000}" name="Column52"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0100-000035000000}" name="Column53"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0100-000036000000}" name="Column54"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0100-000037000000}" name="Column55"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0100-000038000000}" name="Column56"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0100-000039000000}" name="Column57"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0100-00003A000000}" name="Column58"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0100-00003B000000}" name="Column59"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0100-00003C000000}" name="Column60"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0100-00003D000000}" name="Column61"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0100-00003E000000}" name="Column62"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0100-00003F000000}" name="Column63"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0100-000040000000}" name="Column64"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0100-000041000000}" name="Column65"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0100-000042000000}" name="Column66"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0100-000043000000}" name="Column67"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0100-000044000000}" name="Column68"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0100-000045000000}" name="Column69"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0100-000046000000}" name="Column70"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0100-000047000000}" name="Column71"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0100-000048000000}" name="Column72"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0100-000049000000}" name="Column73"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0100-00004A000000}" name="Column74"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0100-00004B000000}" name="Column75"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0100-00004C000000}" name="Column76"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0100-00004D000000}" name="Column77"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0100-00004E000000}" name="Column78"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0100-00004F000000}" name="Column79"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0100-000050000000}" name="Column80"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0100-000051000000}" name="Column81"/>
+    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0100-000052000000}" name="Column82"/>
+    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0100-000053000000}" name="Column83"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0100-000054000000}" name="Column84"/>
+    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0100-000055000000}" name="Column85"/>
+    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0100-000056000000}" name="Column86"/>
+    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0100-000057000000}" name="Column87"/>
+    <tableColumn id="88" xr3:uid="{00000000-0010-0000-0100-000058000000}" name="Column88"/>
+    <tableColumn id="89" xr3:uid="{00000000-0010-0000-0100-000059000000}" name="Column89"/>
+    <tableColumn id="90" xr3:uid="{00000000-0010-0000-0100-00005A000000}" name="Column90"/>
+    <tableColumn id="91" xr3:uid="{00000000-0010-0000-0100-00005B000000}" name="Column91"/>
+    <tableColumn id="92" xr3:uid="{00000000-0010-0000-0100-00005C000000}" name="Column92"/>
+    <tableColumn id="93" xr3:uid="{00000000-0010-0000-0100-00005D000000}" name="Column93"/>
+    <tableColumn id="94" xr3:uid="{00000000-0010-0000-0100-00005E000000}" name="Column94"/>
+    <tableColumn id="95" xr3:uid="{00000000-0010-0000-0100-00005F000000}" name="Column95"/>
+    <tableColumn id="96" xr3:uid="{00000000-0010-0000-0100-000060000000}" name="Column96"/>
+    <tableColumn id="97" xr3:uid="{00000000-0010-0000-0100-000061000000}" name="Column97"/>
+    <tableColumn id="98" xr3:uid="{00000000-0010-0000-0100-000062000000}" name="Column98"/>
+    <tableColumn id="99" xr3:uid="{00000000-0010-0000-0100-000063000000}" name="Column99"/>
+    <tableColumn id="100" xr3:uid="{00000000-0010-0000-0100-000064000000}" name="Column100"/>
+    <tableColumn id="101" xr3:uid="{00000000-0010-0000-0100-000065000000}" name="Column101"/>
+    <tableColumn id="102" xr3:uid="{00000000-0010-0000-0100-000066000000}" name="Column102"/>
+    <tableColumn id="103" xr3:uid="{00000000-0010-0000-0100-000067000000}" name="Column103"/>
+    <tableColumn id="104" xr3:uid="{00000000-0010-0000-0100-000068000000}" name="Column104"/>
+    <tableColumn id="105" xr3:uid="{00000000-0010-0000-0100-000069000000}" name="Column105"/>
+    <tableColumn id="106" xr3:uid="{00000000-0010-0000-0100-00006A000000}" name="Column106"/>
+    <tableColumn id="107" xr3:uid="{00000000-0010-0000-0100-00006B000000}" name="Column107"/>
+    <tableColumn id="108" xr3:uid="{00000000-0010-0000-0100-00006C000000}" name="Column108"/>
+    <tableColumn id="109" xr3:uid="{00000000-0010-0000-0100-00006D000000}" name="Column109"/>
+    <tableColumn id="110" xr3:uid="{00000000-0010-0000-0100-00006E000000}" name="Column110"/>
+    <tableColumn id="111" xr3:uid="{00000000-0010-0000-0100-00006F000000}" name="Column111"/>
+    <tableColumn id="112" xr3:uid="{00000000-0010-0000-0100-000070000000}" name="Column112"/>
+    <tableColumn id="113" xr3:uid="{00000000-0010-0000-0100-000071000000}" name="Column113"/>
+    <tableColumn id="114" xr3:uid="{00000000-0010-0000-0100-000072000000}" name="Column114"/>
+    <tableColumn id="115" xr3:uid="{00000000-0010-0000-0100-000073000000}" name="Column115"/>
+    <tableColumn id="116" xr3:uid="{00000000-0010-0000-0100-000074000000}" name="Column116"/>
+    <tableColumn id="117" xr3:uid="{00000000-0010-0000-0100-000075000000}" name="Column117"/>
+    <tableColumn id="118" xr3:uid="{00000000-0010-0000-0100-000076000000}" name="Column118"/>
+    <tableColumn id="119" xr3:uid="{00000000-0010-0000-0100-000077000000}" name="Column119"/>
+    <tableColumn id="120" xr3:uid="{00000000-0010-0000-0100-000078000000}" name="Column120"/>
+    <tableColumn id="121" xr3:uid="{00000000-0010-0000-0100-000079000000}" name="Column121"/>
+    <tableColumn id="122" xr3:uid="{00000000-0010-0000-0100-00007A000000}" name="Column122"/>
+    <tableColumn id="123" xr3:uid="{00000000-0010-0000-0100-00007B000000}" name="Column123"/>
+    <tableColumn id="124" xr3:uid="{00000000-0010-0000-0100-00007C000000}" name="Column124"/>
+    <tableColumn id="125" xr3:uid="{00000000-0010-0000-0100-00007D000000}" name="Column125"/>
+    <tableColumn id="126" xr3:uid="{00000000-0010-0000-0100-00007E000000}" name="Column126"/>
+    <tableColumn id="127" xr3:uid="{00000000-0010-0000-0100-00007F000000}" name="Column127"/>
+    <tableColumn id="128" xr3:uid="{00000000-0010-0000-0100-000080000000}" name="Column128"/>
+    <tableColumn id="129" xr3:uid="{00000000-0010-0000-0100-000081000000}" name="Column129"/>
+    <tableColumn id="130" xr3:uid="{00000000-0010-0000-0100-000082000000}" name="Column130"/>
+    <tableColumn id="131" xr3:uid="{00000000-0010-0000-0100-000083000000}" name="Column131"/>
+    <tableColumn id="132" xr3:uid="{00000000-0010-0000-0100-000084000000}" name="Column132"/>
+    <tableColumn id="133" xr3:uid="{00000000-0010-0000-0100-000085000000}" name="Column133"/>
+    <tableColumn id="134" xr3:uid="{00000000-0010-0000-0100-000086000000}" name="Column134"/>
+    <tableColumn id="135" xr3:uid="{00000000-0010-0000-0100-000087000000}" name="Column135"/>
+    <tableColumn id="136" xr3:uid="{00000000-0010-0000-0100-000088000000}" name="Column136"/>
+    <tableColumn id="137" xr3:uid="{00000000-0010-0000-0100-000089000000}" name="Column137"/>
+    <tableColumn id="138" xr3:uid="{00000000-0010-0000-0100-00008A000000}" name="Column138"/>
+    <tableColumn id="139" xr3:uid="{00000000-0010-0000-0100-00008B000000}" name="Column139"/>
+    <tableColumn id="140" xr3:uid="{00000000-0010-0000-0100-00008C000000}" name="Column140"/>
+    <tableColumn id="141" xr3:uid="{00000000-0010-0000-0100-00008D000000}" name="Column141"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1168,7 +1192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1200,9 +1224,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1234,6 +1276,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1409,14 +1469,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:X4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1450,7 +1512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1524,7 +1586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1609</v>
       </c>
@@ -1535,31 +1597,31 @@
         <v>4767</v>
       </c>
       <c r="D4">
-        <v>0.151730334254838</v>
+        <v>0.65623369565217426</v>
       </c>
       <c r="E4">
-        <v>0.06273121387283238</v>
+        <v>0.27131250000000001</v>
       </c>
       <c r="F4">
-        <v>0.4492983475747676</v>
+        <v>1.9432153532608696</v>
       </c>
       <c r="G4">
-        <v>0.07397178939432018</v>
+        <v>0.31992798913043474</v>
       </c>
       <c r="H4">
-        <v>0.0451140361899975</v>
+        <v>0.19511820652173917</v>
       </c>
       <c r="I4">
-        <v>0.1884834443327469</v>
+        <v>0.81519089673913026</v>
       </c>
       <c r="J4">
-        <v>0.03025809248554914</v>
+        <v>0.13086625000000002</v>
       </c>
       <c r="K4">
-        <v>0.02881719653179191</v>
+        <v>0.12463437499999999</v>
       </c>
       <c r="L4">
-        <v>0.03592945086705202</v>
+        <v>0.15539487499999996</v>
       </c>
       <c r="M4">
         <v>2051</v>
@@ -1571,50 +1633,51 @@
         <v>5324</v>
       </c>
       <c r="P4">
-        <v>0.1933733350087962</v>
+        <v>0.83633967391304342</v>
       </c>
       <c r="Q4">
-        <v>0.005759770042724302</v>
+        <v>2.4911005434782602E-2</v>
       </c>
       <c r="R4">
-        <v>0.5017710165870822</v>
+        <v>2.1701596467391302</v>
       </c>
       <c r="S4">
-        <v>0.07535436039205833</v>
+        <v>0.32590760869565222</v>
       </c>
       <c r="T4">
-        <v>0.003956867303342549</v>
+        <v>1.7113451086956524E-2</v>
       </c>
       <c r="U4">
-        <v>0.1952417378738376</v>
+        <v>0.84442051630434756</v>
       </c>
       <c r="V4">
-        <v>0.03502115606936417</v>
+        <v>0.15146650000000003</v>
       </c>
       <c r="W4">
-        <v>0.02895838150289018</v>
+        <v>0.125245</v>
       </c>
       <c r="X4">
-        <v>0.04730502167630059</v>
+        <v>0.20459421875</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EK17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:141">
+    <row r="1" spans="1:141" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2039,7 +2102,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:141">
+    <row r="2" spans="1:141" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -2458,7 +2521,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:141">
+    <row r="3" spans="1:141" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>289</v>
       </c>
@@ -2877,7 +2940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:141">
+    <row r="4" spans="1:141" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>290</v>
       </c>
@@ -3296,7 +3359,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:141">
+    <row r="5" spans="1:141" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>291</v>
       </c>
@@ -3715,7 +3778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:141">
+    <row r="6" spans="1:141" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -4134,7 +4197,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:141">
+    <row r="7" spans="1:141" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>293</v>
       </c>
@@ -4553,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:141">
+    <row r="8" spans="1:141" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>289</v>
       </c>
@@ -4972,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:141">
+    <row r="9" spans="1:141" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>290</v>
       </c>
@@ -5391,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:141">
+    <row r="10" spans="1:141" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>291</v>
       </c>
@@ -5810,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:141">
+    <row r="11" spans="1:141" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>292</v>
       </c>
@@ -6229,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:141">
+    <row r="12" spans="1:141" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>293</v>
       </c>
@@ -6648,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:141">
+    <row r="13" spans="1:141" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>289</v>
       </c>
@@ -7067,7 +7130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:141">
+    <row r="14" spans="1:141" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>290</v>
       </c>
@@ -7486,7 +7549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:141">
+    <row r="15" spans="1:141" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>291</v>
       </c>
@@ -7905,7 +7968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:141">
+    <row r="16" spans="1:141" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>292</v>
       </c>
@@ -8324,7 +8387,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:139">
+    <row r="17" spans="1:139" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>293</v>
       </c>
